--- a/Colecciones/Duel Decks Elves vs. Inventors (DDU).xlsx
+++ b/Colecciones/Duel Decks Elves vs. Inventors (DDU).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A63"/>
+  <dimension ref="A1:A64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,441 +437,448 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Duel</t>
+          <t>Duel Decks Elves vs. Inventors (DDU)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Abyssal Gatekeeper</t>
+          <t>Albino Troll</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Abyssal Specter</t>
+          <t>Bad Moon</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Akroma, Angel of Wrath</t>
+          <t>Basking Rootwalla</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Angelic Benediction</t>
+          <t>Beast Attack</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Angelic Page</t>
+          <t>Blastoderm</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Angelic Protector</t>
+          <t>Corrupt</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Angel of Mercy</t>
+          <t>Deathgreeter</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Angel's Feather</t>
+          <t>Drudge Skeletons</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Angelsong</t>
+          <t>Elephant Guide</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Barren Moor</t>
+          <t>Enslave</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Barter in Blood</t>
+          <t>Faerie Macabre</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Breeding Pit</t>
+          <t>Fleshbag Marauder</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Cackling Imp</t>
+          <t>Forest</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Charging Paladin</t>
+          <t>Forest</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Consume Spirit</t>
+          <t>Forest</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Corrupt</t>
+          <t>Forest</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Cruel Edict</t>
+          <t>Garruk Wildspeaker</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Daggerclaw Imp</t>
+          <t>Genju of the Cedars</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Dark Banishing</t>
+          <t>Genju of the Fens</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Dark Ritual</t>
+          <t>Ghost-Lit Stalker</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Demonic Tutor</t>
+          <t>Giant Growth</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Demon's Horn</t>
+          <t>Harmonize</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Demon's Jester</t>
+          <t>Hideous End</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Duress</t>
+          <t>Howling Banshee</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Dusk Imp</t>
+          <t>Ichor Slick</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Faith's Fetters</t>
+          <t>Indrik Stomphowler</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Fallen Angel</t>
+          <t>Invigorate</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Foul Imp</t>
+          <t>Keening Banshee</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Healing Salve</t>
+          <t>Krosan Tusker</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Icatian Priest</t>
+          <t>Lignify</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Kuro, Pitlord</t>
+          <t>Liliana Vess</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Lord of the Pit</t>
+          <t>Mutilate</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Luminous Angel</t>
+          <t>Nature's Lore</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Marble Diamond</t>
+          <t>Overrun</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Oni Possession</t>
+          <t>Phyrexian Rager</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Otherworldly Journey</t>
+          <t>Plated Slagwurm</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Overeager Apprentice</t>
+          <t>Polluted Mire</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Pacifism</t>
+          <t>Rancor</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Plains</t>
+          <t>Ravenous Baloth</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Plains</t>
+          <t>Ravenous Rats</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Plains</t>
+          <t>Rise from the Grave</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Plains</t>
+          <t>Rude Awakening</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Promise of Power</t>
+          <t>Serrated Arrows</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Reiver Demon</t>
+          <t>Sign in Blood</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Reya Dawnbringer</t>
+          <t>Skeletal Vampire</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Righteous Cause</t>
+          <t>Slippery Karst</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Secluded Steppe</t>
+          <t>Snuff Out</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Serra Advocate</t>
+          <t>Stampeding Wildebeests</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Serra Angel</t>
+          <t>Swamp</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Serra's Boon</t>
+          <t>Swamp</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Serra's Embrace</t>
+          <t>Swamp</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Soot Imp</t>
+          <t>Swamp</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Souldrinker</t>
+          <t>Tendrils of Corruption</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Stinkweed Imp</t>
+          <t>Treetop Village</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Sustainer of the Realm</t>
+          <t>Twisted Abomination</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Swamp</t>
+          <t>Urborg Syphon-Mage</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Swamp</t>
+          <t>Vampire Bats</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Swamp</t>
+          <t>Vicious Hunger</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Swamp</t>
+          <t>Vine Trellis</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Twilight Shepherd</t>
+          <t>Wall of Bone</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Unholy Strength</t>
+          <t>Wild Mongrel</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Venerable Monk</t>
+          <t>Windstorm</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Wirewood Savage</t>
         </is>
       </c>
     </row>
